--- a/Digital_Marketing_Agency_Dashboard/Digital_Marketing_Data.xlsx
+++ b/Digital_Marketing_Agency_Dashboard/Digital_Marketing_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit Goel\Desktop\DSM_Dashboards_Github\Excel Pivot Dashboards\Excel_Pivot_Dashboards\Digital_Marketing_Agency_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0E630-D41C-4830-B442-8B4F84806AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3CD866-1BEE-43AD-8AFF-75C2F2DF3240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AE2BBE6-D7A5-454B-8503-3CA01F071019}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,15 +146,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -164,10 +167,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -190,15 +190,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -224,17 +227,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB952342-D542-44CE-A09F-13C3B248406E}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB952342-D542-44CE-A09F-13C3B248406E}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:H13" xr:uid="{BB952342-D542-44CE-A09F-13C3B248406E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A216A9D-E647-4D74-9196-A6C0D67E99FA}" name="Month" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{90366586-726B-44A1-A6FC-F2E916A3B49C}" name="New Clients" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3E735C52-73DA-43AF-8C58-9A3340126A70}" name="Conversion Rate (%)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E083D930-0F8E-4336-9AF7-3316C90CB9C9}" name="Basic Package Revenue" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8CCDDAB8-3B81-4D16-A7EB-4B8EF96C8D99}" name="Standard Package Revenue" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1C2D5F54-01A2-4E2E-AE8B-E5EE6B08D1FF}" name="Premium Package Revenue" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{050FCA13-377E-4132-BF60-C449DC87331B}" name="Recurring Revenue (%)" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{E780A738-A689-4C4D-93FB-5999138C69C6}" name="Total Sales" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4A216A9D-E647-4D74-9196-A6C0D67E99FA}" name="Month" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{90366586-726B-44A1-A6FC-F2E916A3B49C}" name="New Clients" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3E735C52-73DA-43AF-8C58-9A3340126A70}" name="Conversion Rate (%)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E083D930-0F8E-4336-9AF7-3316C90CB9C9}" name="Basic Package Revenue" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8CCDDAB8-3B81-4D16-A7EB-4B8EF96C8D99}" name="Standard Package Revenue" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1C2D5F54-01A2-4E2E-AE8B-E5EE6B08D1FF}" name="Premium Package Revenue" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{050FCA13-377E-4132-BF60-C449DC87331B}" name="Recurring Revenue (%)" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{E780A738-A689-4C4D-93FB-5999138C69C6}" name="Total Sales" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -540,7 +543,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,8 +590,8 @@
       <c r="B2" s="1">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
+      <c r="C2" s="4">
+        <v>0.1</v>
       </c>
       <c r="D2" s="2">
         <v>17117</v>
@@ -613,8 +616,8 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>29</v>
+      <c r="C3" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="D3" s="2">
         <v>10383</v>
@@ -639,8 +642,8 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>58</v>
+      <c r="C4" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="D4" s="2">
         <v>17574</v>
@@ -665,8 +668,8 @@
       <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>25</v>
+      <c r="C5" s="4">
+        <v>0.25</v>
       </c>
       <c r="D5" s="2">
         <v>15174</v>
@@ -691,8 +694,8 @@
       <c r="B6" s="1">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>88</v>
+      <c r="C6" s="4">
+        <v>0.88</v>
       </c>
       <c r="D6" s="2">
         <v>16391</v>
@@ -717,8 +720,8 @@
       <c r="B7" s="1">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
-        <v>92</v>
+      <c r="C7" s="4">
+        <v>0.92</v>
       </c>
       <c r="D7" s="2">
         <v>10090</v>
@@ -743,8 +746,8 @@
       <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>29</v>
+      <c r="C8" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="D8" s="2">
         <v>16156</v>
@@ -769,8 +772,8 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
-        <v>25</v>
+      <c r="C9" s="4">
+        <v>0.25</v>
       </c>
       <c r="D9" s="2">
         <v>17664</v>
@@ -795,8 +798,8 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>68</v>
+      <c r="C10" s="4">
+        <v>0.68</v>
       </c>
       <c r="D10" s="2">
         <v>17212</v>
@@ -821,8 +824,8 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>79</v>
+      <c r="C11" s="4">
+        <v>0.79</v>
       </c>
       <c r="D11" s="2">
         <v>19711</v>
@@ -847,8 +850,8 @@
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>93</v>
+      <c r="C12" s="4">
+        <v>0.93</v>
       </c>
       <c r="D12" s="2">
         <v>13237</v>
@@ -873,8 +876,8 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>47</v>
+      <c r="C13" s="4">
+        <v>0.47</v>
       </c>
       <c r="D13" s="2">
         <v>13108</v>
